--- a/biology/Zoologie/Hespérie_ottomane/Hespérie_ottomane.xlsx
+++ b/biology/Zoologie/Hespérie_ottomane/Hespérie_ottomane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_ottomane</t>
+          <t>Hespérie_ottomane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erynnis marloyi
 L’Hespérie ottomane (Erynnis marloyi) est un lépidoptère (papillon) de la famille des Hesperiidae, de la sous-famille des Pyrginae et du genre Erynnis.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_ottomane</t>
+          <t>Hespérie_ottomane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erynnis marloyi a été décrit par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1834 sous le nom de Thanaos marloyi[1].
-Noms vernaculaires
-Erynnis marloyi se nomme en anglais Inky Skipper et en grec Ανατολική σκοτεινή εσπερίδα[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erynnis marloyi a été décrit par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1834 sous le nom de Thanaos marloyi.
 </t>
         </is>
       </c>
@@ -527,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_ottomane</t>
+          <t>Hespérie_ottomane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon au dessus marron foncé avec des bandes noires aux antérieures et le revers des antérieures orné d'une rangée de petits points blancs sous l'apex[3].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erynnis marloyi se nomme en anglais Inky Skipper et en grec Ανατολική σκοτεινή εσπερίδα,.
 </t>
         </is>
       </c>
@@ -558,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_ottomane</t>
+          <t>Hespérie_ottomane</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,13 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une seule génération en mai juin[3].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon au dessus marron foncé avec des bandes noires aux antérieures et le revers des antérieures orné d'une rangée de petits points blancs sous l'apex.
 </t>
         </is>
       </c>
@@ -590,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_ottomane</t>
+          <t>Hespérie_ottomane</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,15 +624,89 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une seule génération en mai juin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hespérie_ottomane</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_ottomane</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il réside en Europe : Albanie, Macédoine, Bulgarie, Grèce  et au Moyen-Orient jusqu'en Syrie, Iran et Arménie[1],[4].
-Biotope
-Il réside sur les pentes rocheuses et dans les vallons secs jusqu'à 2 000 m d'altitude[3],[4].
-Protection</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en Europe : Albanie, Macédoine, Bulgarie, Grèce  et au Moyen-Orient jusqu'en Syrie, Iran et Arménie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hespérie_ottomane</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_ottomane</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside sur les pentes rocheuses et dans les vallons secs jusqu'à 2 000 m d'altitude,.
+</t>
         </is>
       </c>
     </row>
